--- a/cbrunner/Parameters/LUT_ASET.xlsx
+++ b/cbrunner/Parameters/LUT_ASET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40ADBC-12DA-46B4-990D-808324970C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C1F144-F8EC-47F0-96A9-8E1E0C2B5215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="14400" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -50,15 +50,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Salvage and Planting</t>
-  </si>
-  <si>
     <t>Knockdown and Planting</t>
   </si>
   <si>
-    <t>Straight-to-planting Post Wildfire</t>
-  </si>
-  <si>
     <t>Road Rehabilitation</t>
   </si>
   <si>
@@ -90,6 +84,21 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>Salvage and Planting Post Beetle</t>
+  </si>
+  <si>
+    <t>Salvage and Planting Post Other</t>
+  </si>
+  <si>
+    <t>Ecosystem Restoration</t>
+  </si>
+  <si>
+    <t>Agroforestry and Short Rotation</t>
+  </si>
+  <si>
+    <t>Underplanting</t>
   </si>
 </sst>
 </file>
@@ -133,12 +142,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,17 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17280A96-2DFB-4CA3-A1FB-66CC8F417006}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="5" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,246 +484,300 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.67</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.87</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B14" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.75</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
+      <c r="C5" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.9</v>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.25</v>
+      <c r="C11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.75</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+      <c r="C13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <f>97/255</f>
+        <v>0.38039215686274508</v>
+      </c>
+      <c r="D15" s="3">
+        <f>57/255</f>
+        <v>0.22352941176470589</v>
+      </c>
+      <c r="E15" s="3">
+        <f>4/255</f>
+        <v>1.5686274509803921E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D17" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E17" s="3">
         <v>0.55000000000000004</v>
       </c>
     </row>
